--- a/options.xlsx
+++ b/options.xlsx
@@ -1,19 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\Documents\Github\ShoutOption\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{431EC0C2-6E1B-49AE-98C7-F0E9182451F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>call</t>
   </si>
@@ -27,13 +42,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
@@ -59,32 +71,331 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom"/>
-      <protection/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet1">
-    <outlinePr/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="60">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" ht="14.8">
+    <row r="1" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -95,20 +406,20 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="14.8">
+    <row r="2" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>307500.0</v>
+        <v>307500</v>
       </c>
       <c r="B2">
         <v>187.4</v>
       </c>
       <c r="C2">
-        <v>148.8</v>
-      </c>
-    </row>
-    <row r="3" ht="14.8">
+        <v>148.80000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>308000.0</v>
+        <v>308000</v>
       </c>
       <c r="B3">
         <v>184.2</v>
@@ -117,20 +428,20 @@
         <v>150.6</v>
       </c>
     </row>
-    <row r="4" ht="14.8">
+    <row r="4" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>309000.0</v>
+        <v>309000</v>
       </c>
       <c r="B4">
-        <v>178.0</v>
+        <v>178</v>
       </c>
       <c r="C4">
-        <v>154.3</v>
-      </c>
-    </row>
-    <row r="5" ht="14.8">
+        <v>154.30000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>310000.0</v>
+        <v>310000</v>
       </c>
       <c r="B5">
         <v>171.9</v>
@@ -139,42 +450,42 @@
         <v>158.1</v>
       </c>
     </row>
-    <row r="6" ht="14.8">
+    <row r="6" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>311000.0</v>
+        <v>311000</v>
       </c>
       <c r="B6">
-        <v>166.0</v>
+        <v>166</v>
       </c>
       <c r="C6">
-        <v>162.0</v>
-      </c>
-    </row>
-    <row r="7" ht="14.8">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>312000.0</v>
+        <v>312000</v>
       </c>
       <c r="B7">
         <v>160.1</v>
       </c>
       <c r="C7">
-        <v>166.0</v>
-      </c>
-    </row>
-    <row r="8" ht="14.8">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>312500.0</v>
+        <v>312500</v>
       </c>
       <c r="B8">
-        <v>157.2</v>
+        <v>157.19999999999999</v>
       </c>
       <c r="C8">
         <v>168.1</v>
       </c>
     </row>
-    <row r="9" ht="14.8">
+    <row r="9" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>313000.0</v>
+        <v>313000</v>
       </c>
       <c r="B9">
         <v>154.4</v>
@@ -183,31 +494,30 @@
         <v>170.2</v>
       </c>
     </row>
-    <row r="10" ht="14.8">
+    <row r="10" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>314000.0</v>
+        <v>314000</v>
       </c>
       <c r="B10">
-        <v>148.8</v>
+        <v>148.80000000000001</v>
       </c>
       <c r="C10">
         <v>174.5</v>
       </c>
     </row>
-    <row r="11" ht="14.8">
+    <row r="11" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>315000.0</v>
+        <v>315000</v>
       </c>
       <c r="B11">
-        <v>143.3</v>
+        <v>143.30000000000001</v>
       </c>
       <c r="C11">
         <v>178.9</v>
       </c>
     </row>
   </sheetData>
-  <printOptions/>
-  <pageMargins left="0.6912499999999999" right="0.6912499999999999" top="0.740625" bottom="0.740625" footer="0.29624999999999996" header="0.29624999999999996"/>
+  <pageMargins left="0.69124999999999992" right="0.69124999999999992" top="0.74062499999999998" bottom="0.74062499999999998" header="0.29624999999999996" footer="0.29624999999999996"/>
   <pageSetup paperSize="9" orientation="portrait" copies="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/options.xlsx
+++ b/options.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\Documents\Github\ShoutOption\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\ShoutOption\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{431EC0C2-6E1B-49AE-98C7-F0E9182451F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94B01E8-41A4-4925-98C2-DE2784410BC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3083" yWindow="2430" windowWidth="11970" windowHeight="10650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -28,15 +31,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>call</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>strike</t>
   </si>
   <si>
-    <t>put</t>
+    <t>Dec 2020 call</t>
+  </si>
+  <si>
+    <t>Dec 2020 put</t>
+  </si>
+  <si>
+    <t>Jun 2020 call</t>
+  </si>
+  <si>
+    <t>Jun 2020 put</t>
   </si>
 </sst>
 </file>
@@ -46,8 +55,10 @@
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -70,8 +81,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -106,7 +118,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -118,7 +130,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -165,23 +177,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -217,23 +212,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -386,139 +364,202 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>307500</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>187.4</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>148.80000000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D2" s="1">
+        <v>165.1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>127.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>308000</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>184.2</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>150.6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D3" s="1">
+        <v>161.69999999999999</v>
+      </c>
+      <c r="E3" s="1">
+        <v>128.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>309000</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>178</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>154.30000000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D4" s="1">
+        <v>154.9</v>
+      </c>
+      <c r="E4" s="1">
+        <v>131.80000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>310000</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>171.9</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>158.1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D5" s="1">
+        <v>148.30000000000001</v>
+      </c>
+      <c r="E5" s="1">
+        <v>135.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>311000</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>166</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>162</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D6" s="1">
+        <v>141.80000000000001</v>
+      </c>
+      <c r="E6" s="1">
+        <v>138.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>312000</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>160.1</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>166</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D7" s="1">
+        <v>135.4</v>
+      </c>
+      <c r="E7" s="1">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>312500</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>157.19999999999999</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>168.1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D8" s="1">
+        <v>132.19999999999999</v>
+      </c>
+      <c r="E8" s="1">
+        <v>143.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>313000</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>154.4</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>170.2</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D9" s="1">
+        <v>129.1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>145.69999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>314000</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>148.80000000000001</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>174.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D10" s="1">
+        <v>122.9</v>
+      </c>
+      <c r="E10" s="1">
+        <v>149.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>315000</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>143.30000000000001</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>178.9</v>
       </c>
+      <c r="D11" s="1">
+        <v>116.9</v>
+      </c>
+      <c r="E11" s="1">
+        <v>153.4</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.69124999999999992" right="0.69124999999999992" top="0.74062499999999998" bottom="0.74062499999999998" header="0.29624999999999996" footer="0.29624999999999996"/>
-  <pageSetup paperSize="9" orientation="portrait" copies="0"/>
-  <headerFooter alignWithMargins="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>